--- a/src/attributions/attributions_ig_traj_81.xlsx
+++ b/src/attributions/attributions_ig_traj_81.xlsx
@@ -1007,97 +1007,97 @@
         <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0.4040280904317399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110611993647998</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006072243097954403</v>
+        <v>-0.01000848749638597</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.07527208309277328</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.158535578047521</v>
       </c>
       <c r="J2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.4112871118989492</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1399410608910619</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0384971020500493</v>
+        <v>-0.04159222220009338</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1324172702832135</v>
+        <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.2706157279754271</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.1514208053356803</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.02276243434023979</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0249578450617817</v>
+        <v>0.09699626485459996</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.02201595511724024</v>
+        <v>-0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>-0.04881859833911845</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0</v>
+        <v>0.1533162989669991</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01134445309715177</v>
+        <v>-0</v>
       </c>
       <c r="AE2" t="n">
         <v>-0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.04420038000769139</v>
+        <v>-0.2045858398631362</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1106,187 +1106,187 @@
         <v>-0</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0005299400528547935</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>-0.07784202597128015</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0</v>
+        <v>0.1021165407394009</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.03973881250427074</v>
+        <v>-0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.08841454352387489</v>
+        <v>-0.00761390023272436</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.002643914313216919</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0.04629308516694643</v>
       </c>
       <c r="AT2" t="n">
         <v>-0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0</v>
+        <v>0.2631480535683403</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0551999727144825</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>-0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.005717746045906001</v>
+        <v>0.1175799566638133</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.08620979582364956</v>
+        <v>-0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0.07126039823139134</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>0.05348424580105621</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.05005035968419877</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.06114825516515868</v>
+        <v>-0.1344198813216668</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.02393943080526921</v>
+        <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>-0.2128558466529914</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>-0.03582487539693634</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.04901653055321679</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.04334431294775368</v>
+        <v>0.3085802223927507</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.08727820685858721</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0</v>
+        <v>0.0994361582550739</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0</v>
+        <v>0.4257621950057804</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.07521636060912501</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03034010842466554</v>
+        <v>0.09554615427542303</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.0782195325235705</v>
+        <v>-0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>-0.05048885591892328</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>-0.1532720387635735</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.05066252273877397</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.01098652672589248</v>
+        <v>0.009337357976487866</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.046236447862291</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0</v>
+        <v>0.1213226548525455</v>
       </c>
       <c r="CM2" t="n">
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>-0.03450033041561451</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.007609458024577934</v>
+        <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.05469312311733786</v>
+        <v>-0.09574839461651867</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1295,262 +1295,262 @@
         <v>-0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02760247660276488</v>
+        <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>0.022052191551602</v>
       </c>
       <c r="CV2" t="n">
         <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>0</v>
+        <v>-0.1683696977703676</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.04874821511350278</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.008708316582251876</v>
+        <v>0.01425884418430298</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.04124025779047271</v>
+        <v>-0</v>
       </c>
       <c r="DD2" t="n">
-        <v>0</v>
+        <v>0.08850130533265961</v>
       </c>
       <c r="DE2" t="n">
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0.1979961930535364</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.02753348448316413</v>
+        <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.08284929196272915</v>
+        <v>0.02954969541894217</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.03891641844486086</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>0.06275496052978354</v>
       </c>
       <c r="DN2" t="n">
         <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0.07517854130798524</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.03338041247148504</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.001514738140407848</v>
+        <v>-0.1337129429475252</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.003990554219067703</v>
+        <v>0</v>
       </c>
       <c r="DV2" t="n">
-        <v>0</v>
+        <v>-0.06713495813326448</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0.2084390528010975</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.004456426151942934</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.02411217921545596</v>
+        <v>-0.1218367389222659</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.06958919390958283</v>
+        <v>-0</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0</v>
+        <v>4.280925344400983e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0</v>
+        <v>-0.06985822222488335</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.02572006061980643</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
         <v>0</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.07390143291084392</v>
+        <v>0.1133118870862893</v>
       </c>
       <c r="EK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.05871580068309514</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
-        <v>0</v>
+        <v>0.1639538012860002</v>
       </c>
       <c r="EO2" t="n">
         <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0</v>
+        <v>-0.0431173721460199</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.02680405115525832</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.04858741182562821</v>
+        <v>-0.07789697510311616</v>
       </c>
       <c r="ET2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.02784533938043959</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0</v>
+        <v>0.06794125574655566</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0</v>
+        <v>-0.1706213772286836</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.05422563080687022</v>
+        <v>-0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.002416327896532401</v>
+        <v>0.00807152775705198</v>
       </c>
       <c r="FC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0401231965775672</v>
+        <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0</v>
+        <v>0.08517986307200166</v>
       </c>
       <c r="FG2" t="n">
         <v>0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0</v>
+        <v>0.05951756731383902</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.07488483973510643</v>
+        <v>0</v>
       </c>
       <c r="FJ2" t="n">
         <v>0</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.01060521883521908</v>
+        <v>-0.2493124790665496</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>-0.003969685591392679</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0</v>
+        <v>-0.006286359179587545</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0</v>
+        <v>-0.04992227918781326</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.01909142283952883</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
         <v>-0</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.007681285196875779</v>
+        <v>-0.02579917699787081</v>
       </c>
       <c r="FU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV2" t="n">
         <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0350396666202791</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0</v>
+        <v>-0.03625380620550376</v>
       </c>
       <c r="FY2" t="n">
         <v>-0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0</v>
+        <v>-0.1852555469648009</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.007686227973111802</v>
+        <v>0</v>
       </c>
       <c r="GB2" t="n">
         <v>-0</v>
@@ -1559,16 +1559,16 @@
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
         <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.08689831013238351</v>
+        <v>-0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0.01498923650300059</v>
       </c>
     </row>
     <row r="3">
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1684,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -1738,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1792,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ3" t="n">
         <v>0</v>
@@ -1954,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER3" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>0</v>
@@ -2145,10 +2145,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2226,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
         <v>0</v>
@@ -2714,25 +2714,25 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.5244371579586645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3900164966374151</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09855891414567088</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0003555121960989785</v>
+        <v>-0.08272772698076998</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.1726316916689068</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,52 +2741,52 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.4470171586763059</v>
       </c>
       <c r="L5" t="n">
-        <v>0.502452732810191</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1974668860469516</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1511162189919507</v>
+        <v>-0.0647396292255223</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-0.1907594816959799</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.2034763491568378</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03124342572913399</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05303193735466137</v>
+        <v>-0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08191772073247594</v>
+        <v>0.2214237063633651</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0.04472599369108392</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -2795,25 +2795,25 @@
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.2229371842838425</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0413478519584695</v>
+        <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.06061371817143644</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06011324958051357</v>
+        <v>-0.1352255102633211</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>0.01093808625894644</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.1100184694425895</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.08940252542774957</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.008548341684572188</v>
+        <v>-0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.04908196225396581</v>
+        <v>0.03709101748593414</v>
       </c>
       <c r="AP5" t="n">
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>-0.07717723283747634</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.2567907966233577</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.09589871830247294</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.02226884883421645</v>
+        <v>-0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0527761016383537</v>
+        <v>0.06593899318816075</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0</v>
+        <v>-0.1189820075010889</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.09604001188342445</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.1605951044446769</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.1092701129527987</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.1634364386404227</v>
+        <v>-0.2179637431690206</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>0.02320624529091621</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
@@ -2903,22 +2903,22 @@
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>-0.01301639854557778</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.2155397538207864</v>
+        <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.0404192800082885</v>
+        <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>-0.1578990237823303</v>
+        <v>0.1390290174476776</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0</v>
+        <v>0.1354436780249045</v>
       </c>
       <c r="BS5" t="n">
         <v>-0</v>
@@ -2927,25 +2927,25 @@
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.2956856155088219</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1558137423652467</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.03279578260578281</v>
+        <v>-0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.00147611096089519</v>
+        <v>0.1174685022954683</v>
       </c>
       <c r="BZ5" t="n">
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0</v>
+        <v>-0.1447066837177511</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
@@ -2957,25 +2957,25 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.1813104552297142</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0.1288738673294586</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0402138101049208</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.06679271154425319</v>
+        <v>0.006840007315629819</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0</v>
+        <v>0.07368079391113398</v>
       </c>
       <c r="CK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
@@ -2984,52 +2984,52 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.04533090366907106</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.09998104175340163</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.05985516401966781</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.04419706202616615</v>
+        <v>-0.1460985891102549</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>-0.03445798606001874</v>
       </c>
       <c r="CT5" t="n">
         <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
         <v>-0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.1658060943846234</v>
       </c>
       <c r="CX5" t="n">
-        <v>-0.1246224186939342</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.02495167790286781</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.03328968218460503</v>
+        <v>-0.02464450407278299</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>0.1008061429902763</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.1358432561367164</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.03143995473804281</v>
+        <v>-0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.05658251616979658</v>
+        <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.04602599450993246</v>
+        <v>0.087264635452003</v>
       </c>
       <c r="DJ5" t="n">
         <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>-0</v>
+        <v>0.01734428282625834</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
@@ -3062,217 +3062,217 @@
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO5" t="n">
-        <v>-0</v>
+        <v>-0.08042815018531591</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.03278418880901594</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02112801879840143</v>
+        <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.1011982126069583</v>
+        <v>-0.1007346162421095</v>
       </c>
       <c r="DS5" t="n">
         <v>-0</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0</v>
+        <v>0.03678403288799686</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0</v>
+        <v>-0.2174344681569411</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0.05852992094851719</v>
+        <v>-0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.006495513188183141</v>
+        <v>-0</v>
       </c>
       <c r="EA5" t="n">
-        <v>-0.03158016033196645</v>
+        <v>-0.03646123049128245</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>0.02451282351213888</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
         <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.08211238961596118</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.1618463091181278</v>
+        <v>0</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.1099311505537842</v>
+        <v>-0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.02897741356990403</v>
+        <v>0.07216555611140364</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0</v>
+        <v>0.1282695714891818</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>-0</v>
+        <v>-0.1346540576971012</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0.03592108439872996</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.04233409744070958</v>
+        <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02064060626817393</v>
+        <v>-0.05375415916580124</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0.07601848384453222</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>-0</v>
+        <v>-0.1691069162963591</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0.1322696202995711</v>
+        <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0467962362026863</v>
+        <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.03044963577236764</v>
+        <v>-0.04070886797367133</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0</v>
+        <v>0.09985981567048823</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>-0.04509343844617492</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.1273791834622271</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.002388376822327239</v>
+        <v>0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.008150302260206981</v>
+        <v>-0.04926883998354329</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0</v>
+        <v>-0.02479457747660654</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>-0</v>
+        <v>-0.01893145407038394</v>
       </c>
       <c r="FR5" t="n">
-        <v>-0.00835693016508717</v>
+        <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.06172883227456559</v>
+        <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0009605171715911854</v>
+        <v>0.004674958278437745</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0.06873382515725933</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.1520014144245721</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.09272965665568213</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.005699757580119891</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD5" t="n">
         <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0</v>
+        <v>0.003383588796651881</v>
       </c>
       <c r="GF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
         <v>-0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -3445,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO6" t="n">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3634,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
@@ -3688,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>0</v>
@@ -3849,52 +3849,52 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5546584873352611</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>-1.537115600028207</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3479920935977418</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.07798877947071</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1318213457398363</v>
+        <v>0.07712150213855901</v>
       </c>
       <c r="F7" t="n">
         <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4644696400360407</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>-1.252509774827579</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4225775553683369</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.9518879571039823</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06853327207450648</v>
+        <v>0.1418183976532423</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
@@ -3903,19 +3903,19 @@
         <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.04517272134079551</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>-0.3555832047463938</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1285027129780051</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>0.1120715770759758</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1503821524945445</v>
+        <v>-0.09803642053127154</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3930,76 +3930,76 @@
         <v>-0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.07064101032527637</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>-0.2499223605218913</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1034893963124756</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.1735871650396296</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2044875686124482</v>
+        <v>0.2316077085713693</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.128575327764707</v>
+        <v>-0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>-0.1232582428333826</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.08034431649449887</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>0.2207869734053738</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.02565774346128299</v>
+        <v>0.1238013972760504</v>
       </c>
       <c r="AP7" t="n">
         <v>-0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.2529541647923885</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>-0.5395149952277487</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.14229909018854</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.240827310469829</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.03790835991698766</v>
+        <v>-0.05541788317642208</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
         <v>-0</v>
@@ -4008,52 +4008,52 @@
         <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1042025217979243</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>-0.4099098751823774</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.07137585902857156</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>0.4894536686606486</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.219936184391615</v>
+        <v>0.4065846266609614</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.08761466027871673</v>
+        <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.1185157928950199</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1325263994710904</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.03441993693053259</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.2068910653288459</v>
+        <v>-0.3303331621673907</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR7" t="n">
         <v>0</v>
@@ -4062,49 +4062,49 @@
         <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.3161041455538459</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0.7088683235331926</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.1896780419562894</v>
+        <v>-0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.194613732779274</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.009925555123351769</v>
+        <v>-0.2255467137230439</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
         <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.177801827585771</v>
+        <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>0.3657665793802425</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.08999559451650051</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>-0.1940010436453113</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.01832917746541386</v>
+        <v>0.03751190602281729</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4113,25 +4113,25 @@
         <v>0</v>
       </c>
       <c r="CK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.0288251451868269</v>
+        <v>-0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.03792286571569488</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.001586214431719815</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>0.1606164730296316</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.1002374063443139</v>
+        <v>0.1210653967358087</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
@@ -4140,25 +4140,25 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU7" t="n">
         <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.156133778093427</v>
+        <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>0.3328601575248257</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.08330121692681118</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>-0.2780342742928349</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.07052371614195729</v>
+        <v>0.03930280712127598</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4167,52 +4167,52 @@
         <v>-0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
         <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.02857496672741506</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>0.5360206655257143</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.1385555441421176</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>-0.2209952186377437</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0271179567534677</v>
+        <v>0.1014126223928887</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0.05421241944527593</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.07129149697476515</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.06612640724670286</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.02819080083404102</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.05948806860646869</v>
+        <v>0.1744273211990647</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4227,19 +4227,19 @@
         <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.03223660609394407</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.1339095538776313</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.01051994505218732</v>
+        <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>0.1552872359542127</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.02204494333692647</v>
+        <v>0.09905427363967528</v>
       </c>
       <c r="EB7" t="n">
         <v>-0</v>
@@ -4248,25 +4248,25 @@
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.2431875468494539</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>0.3048644655833463</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.09944721241707639</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>-0.06759504377861886</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.04094489218599973</v>
+        <v>-0.2155358595887794</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4278,76 +4278,76 @@
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.03329263253186775</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>0.139570067885674</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.09384471664808955</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.2177221919037934</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.04230734914298222</v>
+        <v>-0.0448015491772426</v>
       </c>
       <c r="ET7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
         <v>0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.1710126920882814</v>
+        <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>0.3452916100382014</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0883206255253326</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0.231100378677685</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.05209129419421966</v>
+        <v>0.04120023801199523</v>
       </c>
       <c r="FC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0.1363289935987367</v>
+        <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>0.2485073529535438</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.09123733909453262</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>-0.2035715729427133</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.07720416925777576</v>
+        <v>0.03825024257540528</v>
       </c>
       <c r="FL7" t="n">
         <v>0</v>
@@ -4356,25 +4356,25 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP7" t="n">
-        <v>-0.06016295067745379</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>0.04724292187822824</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.006577512157390402</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.08638384078315524</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.004267461668791091</v>
+        <v>-0.00211423607005114</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
@@ -4383,87 +4383,87 @@
         <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.007080319757095101</v>
+        <v>0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.05691010171178437</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.09428248518962978</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>0.16333405149724</v>
       </c>
       <c r="GC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
         <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3274275148289106</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.9405697913826785</v>
       </c>
       <c r="C8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-0.3163132716763899</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03023872916129239</v>
+        <v>-0.1363657948039965</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02618132455658819</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2663632333085266</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.6137760974632578</v>
       </c>
       <c r="L8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.3832580833800001</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1031598192381808</v>
+        <v>-0.2154841291200038</v>
       </c>
       <c r="O8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003168252234505525</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -4472,52 +4472,52 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.003358815605685869</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.2698226243840993</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0483417342412694</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.09612524522547727</v>
+        <v>-0.00305298561546787</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.08223679117086279</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0345041233929249</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.2202030416307305</v>
       </c>
       <c r="AD8" t="n">
         <v>-0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>-0.007916013172221679</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.007100180434514549</v>
+        <v>-0.02388564414316846</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.04706565107199751</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4526,187 +4526,187 @@
         <v>-0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.09155892617952985</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.08736385055608605</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.09327176770926321</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.04016336136240108</v>
+        <v>-0.1322366570640198</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.01906899189943127</v>
+        <v>-0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1411990785152868</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.6219624380465713</v>
       </c>
       <c r="AV8" t="n">
         <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>-0.0635510589239887</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.004764252722124078</v>
+        <v>0.1472402694186365</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.01893545506966052</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.07602329504630237</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.1385222727289439</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.1698625300406615</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.00463996735200455</v>
+        <v>-0.1824795762101906</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.01862293155917987</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.03755328928902441</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.1747006692014504</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.09894979355741738</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.08843629488466564</v>
+        <v>0.3184788868589499</v>
       </c>
       <c r="BQ8" t="n">
         <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.04283628075821785</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT8" t="n">
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1725251497575416</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.5206775423910329</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>0.002238113957903701</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.03818935729558561</v>
+        <v>0.03332793719134448</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.03576859889680939</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
         <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.0938830021502129</v>
+        <v>-0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.2376574418551704</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.09446814966921285</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005828905335090289</v>
+        <v>0.004565381067997424</v>
       </c>
       <c r="CI8" t="n">
         <v>-0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>-0.01631963975086685</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01002312525099851</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.1355293326006572</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.1978599768003318</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.06830062828130636</v>
+        <v>-0.3941739526154958</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>-0.0282002179245544</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
@@ -4715,52 +4715,52 @@
         <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.07794679936063069</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.2198531681919088</v>
       </c>
       <c r="CX8" t="n">
         <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.1446032978722125</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.007249460328503512</v>
+        <v>-0.03087497614994881</v>
       </c>
       <c r="DA8" t="n">
         <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0.007361673508080287</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.02838282285994239</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.2037147091558561</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.2665903786708507</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.03706205991419904</v>
+        <v>0.01901934226744119</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0.0148266235491927</v>
+        <v>-0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
@@ -4769,79 +4769,79 @@
         <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.002618848049469793</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.1391024965788409</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>-0.141530165597752</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.0761715824427749</v>
+        <v>-0.07124603191796332</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT8" t="n">
-        <v>-0.04519140012393454</v>
+        <v>0</v>
       </c>
       <c r="DU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV8" t="n">
         <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.003315349551823544</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>0.1131470601583329</v>
       </c>
       <c r="DY8" t="n">
         <v>0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>-0.008794274752920441</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.01609803612268958</v>
+        <v>-0.1331111197282664</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
       </c>
       <c r="EC8" t="n">
-        <v>-0.01322643812696513</v>
+        <v>0</v>
       </c>
       <c r="ED8" t="n">
         <v>-0</v>
       </c>
       <c r="EE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.1392884368952265</v>
+        <v>-0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.173471820585896</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>-0.2512603278925312</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01524799766270861</v>
+        <v>0.2140130121457507</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.05726437863743083</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
         <v>0</v>
@@ -4850,106 +4850,106 @@
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.03765349084253201</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.1278735200170874</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.1414019330931688</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.09777919405559556</v>
+        <v>-0.1317023082065069</v>
       </c>
       <c r="ET8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.01447934008192406</v>
+        <v>-0</v>
       </c>
       <c r="EV8" t="n">
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.08139519823497138</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.2178196426480763</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.1334726549126218</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.007996747644668414</v>
+        <v>-0.02328192558486829</v>
       </c>
       <c r="FC8" t="n">
         <v>-0</v>
       </c>
       <c r="FD8" t="n">
-        <v>-0.00108808245254111</v>
+        <v>-0</v>
       </c>
       <c r="FE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.06480754875571172</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>0.01043189736761224</v>
       </c>
       <c r="FI8" t="n">
         <v>-0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.1163394729111314</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.05040578250506517</v>
+        <v>-0.1072011874187165</v>
       </c>
       <c r="FL8" t="n">
         <v>-0</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0406945566045716</v>
+        <v>-0</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.02024387420771929</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>0.02903223635890571</v>
       </c>
       <c r="FR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>-0.006612366092747655</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.006103787122528645</v>
+        <v>-0.1851914939120801</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.009193468025579594</v>
+        <v>0</v>
       </c>
       <c r="FW8" t="n">
         <v>0</v>
@@ -4958,597 +4958,597 @@
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.03563059717649553</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.07537686919792602</v>
       </c>
       <c r="GA8" t="n">
         <v>-0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.01636414408970094</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.01718686733732046</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>-0.1655384016483287</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3047655626076664</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0</v>
+        <v>0.3512864081269947</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01784815113014792</v>
+        <v>-0</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.00739483493406449</v>
+        <v>0.3737873837179134</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0.0556519378991407</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05057991368685202</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0.09047697229192662</v>
       </c>
       <c r="K9" t="n">
-        <v>0.217422915534036</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.1721511462828227</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.007118662684058817</v>
+        <v>-0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.007317424763329264</v>
+        <v>0.1735874497595981</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0.04817538689925432</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1082070042911433</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>-0.08284731551748399</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02891647137368715</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.1970953511469149</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.05130814231720867</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02714328292152489</v>
+        <v>0.09088388308240564</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0.08715209386035551</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.05149105197630263</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>-0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.02727319561937367</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1080356900474183</v>
+        <v>-0</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0.08944119540907086</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.01408182623253561</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.01232595259182432</v>
+        <v>0.03968089460791509</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0.04621428222806194</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.04154578110472971</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>-0.02632215031307424</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.141870389158864</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>-0.03039672065499407</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.01711309780793719</v>
+        <v>-0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.01173688608944775</v>
+        <v>-0.07114068954335263</v>
       </c>
       <c r="AP9" t="n">
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0.01101059042104026</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.001574926577938807</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0</v>
+        <v>-0.03814958628069457</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2000912432816397</v>
+        <v>-0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.2886897386240616</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.02805960373633664</v>
+        <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.07816442686901244</v>
+        <v>0.4701312985805261</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0.02270100169244316</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.05039860850349931</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
         <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0.09436813610249591</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.05655265323688312</v>
+        <v>0</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>-0.08983711712679805</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.03506335296170465</v>
+        <v>-0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.006294463173418822</v>
+        <v>0.03510119745308692</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0.03961405463328594</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.1093078641113858</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>0.09995784666753788</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.02766004139600895</v>
+        <v>-0</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0</v>
+        <v>0.1975285147513268</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.1113633059582124</v>
+        <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.09627746672313051</v>
+        <v>0.1739327608838931</v>
       </c>
       <c r="BQ9" t="n">
         <v>-0</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0</v>
+        <v>-0.0338448233383449</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02919521817087859</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>-0.03593874135238651</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.1437821730453178</v>
+        <v>-0</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>0.1641850437923534</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.01615005273553227</v>
+        <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.03554362371583264</v>
+        <v>0.363494842481543</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0</v>
+        <v>0.04912253894782304</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.04891599731818764</v>
+        <v>-0</v>
       </c>
       <c r="CC9" t="n">
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>0.05760728274760893</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0.09533954165511903</v>
+        <v>-0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0.09947348408711656</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.02537935336058994</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.009468462887499982</v>
+        <v>-0.04272100128077721</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0</v>
+        <v>0.01683829940957417</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.02947076703364098</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>-0.08782637946434396</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0.09998019957246682</v>
+        <v>0</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0.03820134304149621</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.002326416163461409</v>
+        <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.1427345311145709</v>
+        <v>-0.2508047242253053</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0.1116365594774051</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.02046470638927452</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0.03622274745735254</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0.09017430552528899</v>
+        <v>0</v>
       </c>
       <c r="CX9" t="n">
-        <v>-0</v>
+        <v>-0.08239532654449713</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.002812837528797095</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.008156140027831899</v>
+        <v>-0.02741808181815288</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>0.03931034193327962</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.01613031693091273</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>0.09894868698635909</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0.05054740266690273</v>
+        <v>0</v>
       </c>
       <c r="DG9" t="n">
-        <v>-0</v>
+        <v>-0.1514145852433596</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.01499990715674221</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.07157082284763874</v>
+        <v>-0.04608123877765866</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0</v>
+        <v>0.01021164407577824</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.03354358982514745</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>-0</v>
       </c>
       <c r="DN9" t="n">
-        <v>-0</v>
+        <v>0.03922381153987098</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.00559122480013212</v>
+        <v>-0</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>0.03453040939339298</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.02602011731246723</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.02570541499137352</v>
+        <v>-0.1447165188147784</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>0.0751020936919919</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.05302784668817572</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
         <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0.05251746999508653</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.03276150616339853</v>
+        <v>0</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0.05832137697627581</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.0239409033026288</v>
+        <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01827311842252496</v>
+        <v>-0.2396144281990006</v>
       </c>
       <c r="EB9" t="n">
         <v>0</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0</v>
+        <v>-0.01059854256411494</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.03694642217450135</v>
+        <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0.04603659212075518</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0.09239089491195811</v>
+        <v>0</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>-0.2253656983886743</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.01344701745014526</v>
+        <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0641994729574929</v>
+        <v>0.07025486283094526</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0</v>
+        <v>-0.01457095535595015</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.01129676285112045</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>-0.02135007198602744</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0.0620058792050147</v>
+        <v>0</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>-0.06431865637705522</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.06143043731041246</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.01141148244581908</v>
+        <v>-0.1560830854401518</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>-0.1153591024528729</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.03977332878638333</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>0.0270160669710964</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0.08280748054160497</v>
+        <v>-0</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>-0.08522478659430779</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.01557114861940578</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.005817510996588585</v>
+        <v>-0.05664434993403843</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0</v>
+        <v>0.01782375133092097</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0321641929205492</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>0.1310609150217981</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0.06759780633048212</v>
+        <v>-0</v>
       </c>
       <c r="FI9" t="n">
-        <v>-0</v>
+        <v>0.02718398736281518</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.06920952242951613</v>
+        <v>0</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0.01811598176829531</v>
+        <v>-0.06640549877895308</v>
       </c>
       <c r="FL9" t="n">
         <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>-0.08734512236424488</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.04830911909435416</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0.05792824663696166</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0.0124031234236793</v>
+        <v>0</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>0.09332216229887522</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.02501846854348858</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0201894857953254</v>
+        <v>-0.02085137404521642</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>-0.1220199769713756</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0126893054950011</v>
+        <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>-0</v>
+        <v>-0.08689990484916404</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.02373769268306699</v>
+        <v>-0</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0.04685319587733858</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0.0944030639778987</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
         <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0.03202472895915883</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.01586261849029844</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
         <v>0</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2700382034641936</v>
+        <v>-1.01523555821666</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
@@ -5568,118 +5568,118 @@
         <v>-0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008183629143685334</v>
+        <v>0.09600098812621007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4515197917039647</v>
+        <v>1.299257065952552</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.1833492600407228</v>
+        <v>-0.616036509686948</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.04795454045195061</v>
+        <v>0.03269780431030718</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4439942103828442</v>
+        <v>0.8793423788601684</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03382118513123065</v>
+        <v>-0.1088552068665907</v>
       </c>
       <c r="U10" t="n">
         <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01763624695923887</v>
+        <v>0.1605689715810021</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1522835810474674</v>
+        <v>0.2444548282141922</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>-0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.07500719448820949</v>
+        <v>-0.1243585485744076</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
         <v>-0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.0944687626133543</v>
+        <v>0.001139860921079179</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.08289657594969513</v>
+        <v>0.02749102796114439</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.04466439642990876</v>
+        <v>-0.1282016144597799</v>
       </c>
       <c r="AM10" t="n">
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.04795038192562832</v>
+        <v>-0.1466013198481134</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1239575597410309</v>
+        <v>0.3467680070393685</v>
       </c>
       <c r="AQ10" t="n">
         <v>-0</v>
@@ -5688,166 +5688,166 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.1101675765969575</v>
+        <v>-0.4455803754393465</v>
       </c>
       <c r="AV10" t="n">
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.06759779611418928</v>
+        <v>0.1393397121788306</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.120035882542892</v>
+        <v>0.7463091732373981</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.08403074504951576</v>
+        <v>-0.4110492844057702</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF10" t="n">
         <v>-0</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.09190754863910511</v>
+        <v>0.122583505464526</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.1522386128822612</v>
+        <v>0.2556691308527019</v>
       </c>
       <c r="BI10" t="n">
         <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.05475467326734527</v>
+        <v>-0.3061581257089731</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.1055178001499889</v>
+        <v>-0.1433122467154546</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.1267627074641767</v>
+        <v>0.1447537175027178</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0.0858238357031843</v>
+        <v>-0.4711882662228642</v>
       </c>
       <c r="BW10" t="n">
         <v>-0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.06645555020339899</v>
+        <v>0.1672099941345414</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.2424546258520975</v>
+        <v>0.5590962446661237</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.07207499694268628</v>
+        <v>0.2593563236097431</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.02312251085784786</v>
+        <v>-0.01428612902392847</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0.07426625608333913</v>
+        <v>-0.2706546286537403</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
         <v>-0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0.04668756742427237</v>
+        <v>0.1167886623678485</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
         <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.09286350621757726</v>
+        <v>-0.2586802439507907</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.1023989591503033</v>
+        <v>-0.06308999645817082</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU10" t="n">
         <v>0</v>
@@ -5856,25 +5856,25 @@
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.06820432783314317</v>
+        <v>0.2193058003689634</v>
       </c>
       <c r="CX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY10" t="n">
         <v>-0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01935195760837247</v>
+        <v>0.00613885897459405</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0.06605397083600074</v>
+        <v>-0.2527945286530076</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD10" t="n">
         <v>-0</v>
@@ -5883,88 +5883,88 @@
         <v>-0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.02332481653072764</v>
+        <v>0.05304711002146733</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.03255276568324735</v>
+        <v>-0.05592949615329957</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.07801185182915527</v>
+        <v>-0.2231255039826979</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>-0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN10" t="n">
         <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0.044041468426349</v>
+        <v>0.02378144885933687</v>
       </c>
       <c r="DP10" t="n">
         <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01157333885009604</v>
+        <v>-0.01561074395181454</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.1133665542227116</v>
+        <v>-0.0544358518979103</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
         <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0.06609222427627838</v>
+        <v>-0.1855612845181854</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.04820078365465375</v>
+        <v>0.235300067208479</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.03151822436223985</v>
+        <v>0.01458149206158613</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.1041942962038221</v>
+        <v>0.2128005970763474</v>
       </c>
       <c r="EH10" t="n">
         <v>-0</v>
@@ -5973,91 +5973,91 @@
         <v>-0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.06031471186898711</v>
+        <v>-0.1112603022993998</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0.05960495799666393</v>
+        <v>-0.08666489394692195</v>
       </c>
       <c r="EL10" t="n">
         <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>-0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.02248741693535249</v>
+        <v>0.1253008193523145</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.06133687789373096</v>
+        <v>0.01451137328821416</v>
       </c>
       <c r="ET10" t="n">
-        <v>-0.1046916761385954</v>
+        <v>-0.164421773862654</v>
       </c>
       <c r="EU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV10" t="n">
         <v>-0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.07694971923366631</v>
+        <v>0.226352501574621</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01121074611377588</v>
+        <v>-0.04854111526301848</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0.08373275299892105</v>
+        <v>-0.2441666613946729</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.03217350305684759</v>
+        <v>0.07523824653763106</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.004856533436267547</v>
+        <v>0.2026650530480686</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.1195704697004822</v>
+        <v>-0.3293955369473157</v>
       </c>
       <c r="FM10" t="n">
         <v>0</v>
@@ -6069,40 +6069,40 @@
         <v>-0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.04670753177633268</v>
+        <v>0.03367309845101453</v>
       </c>
       <c r="FR10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FS10" t="n">
         <v>0</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.01035065613716382</v>
+        <v>-0.1410445907916998</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.004649688432809824</v>
+        <v>0.007780699965548411</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
         <v>-0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY10" t="n">
         <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0.02226423401960647</v>
+        <v>0.05363257659120307</v>
       </c>
       <c r="GA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.04659634291623301</v>
+        <v>0.1706947374222852</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         <v>-0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,34 +6128,34 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1364446040764817</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0725917714706249</v>
+        <v>-0.01529134798576143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2316277795047638</v>
+        <v>-0.07891539885748054</v>
       </c>
       <c r="G11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0548441206713979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.09015323897684376</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6164,25 +6164,25 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01802322023193115</v>
+        <v>-0.0267125732675682</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1841368701885109</v>
+        <v>-0.07548151299726595</v>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.07349325403139786</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.02248529879997976</v>
       </c>
       <c r="U11" t="n">
         <v>-0</v>
@@ -6191,16 +6191,16 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.03383802753739208</v>
+        <v>0.005789584403809348</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02870064980247453</v>
+        <v>0.01287595108783647</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.003456100173138733</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>0.01762029509310406</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6218,160 +6218,160 @@
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07982821348181483</v>
+        <v>0.01027705501743932</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.04042884506519673</v>
+        <v>-0.006396756038661381</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.04931189522526069</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.003888808952701278</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.02788168508686837</v>
+        <v>-0.02682946508539239</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02610676515272379</v>
+        <v>-0.01728883620600441</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.01337370743105782</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.07059543046792759</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.01418649414762212</v>
+        <v>0.0003570618753894992</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0584740016350191</v>
+        <v>-0.01301994159694863</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.02753600356541389</v>
+        <v>-0</v>
       </c>
       <c r="BB11" t="n">
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.04853347725056242</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.004146283330381031</v>
+        <v>-0.04457993870232572</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0405322991280133</v>
+        <v>-0.05921805229505812</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.03219290870662116</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.05904950255337194</v>
       </c>
       <c r="BN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>-0.009395711994880913</v>
+        <v>0.04326045893188176</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.03868680436988604</v>
+        <v>0.01002423074745777</v>
       </c>
       <c r="BR11" t="n">
         <v>-0</v>
       </c>
       <c r="BS11" t="n">
-        <v>-0.007658472557837724</v>
+        <v>-0</v>
       </c>
       <c r="BT11" t="n">
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.04904855986525251</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0718916605174951</v>
+        <v>0.008881170629790117</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1138680093403573</v>
+        <v>-0.004319706383300165</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0008417544612263656</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
         <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.02743307525126803</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6380,97 +6380,97 @@
         <v>0</v>
       </c>
       <c r="CH11" t="n">
-        <v>-0.01607122061599619</v>
+        <v>-0.001718727309518959</v>
       </c>
       <c r="CI11" t="n">
-        <v>-0.0429912485131418</v>
+        <v>0.02464327366427905</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.02308343686148215</v>
+        <v>-0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0.02832040283563373</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.01127680409006691</v>
+        <v>0.002243613834086771</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.08268592549064548</v>
+        <v>-0.007253974229492828</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.02661585845355283</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
         <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.01744193599216252</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.02188951332076922</v>
+        <v>-0.0007379786198055919</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0.04539276643572523</v>
+        <v>0.0235687538478754</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.03154994679373732</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
         <v>-0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0.03934244765089095</v>
       </c>
       <c r="DG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.071100144167632</v>
+        <v>0.01096392675926109</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0.03029450903592239</v>
+        <v>0.00243560789658034</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>-0.01313325010840598</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
         <v>0</v>
@@ -6479,25 +6479,25 @@
         <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.02810403422185292</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR11" t="n">
-        <v>-0.0025988437227726</v>
+        <v>0.007584270899308072</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.01978283578692836</v>
+        <v>0.008091523767714097</v>
       </c>
       <c r="DT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0350535028612159</v>
+        <v>0</v>
       </c>
       <c r="DV11" t="n">
         <v>0</v>
@@ -6506,52 +6506,52 @@
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>0.01420265420713893</v>
       </c>
       <c r="DY11" t="n">
         <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.005798750462484585</v>
+        <v>-0.0124929642671575</v>
       </c>
       <c r="EB11" t="n">
-        <v>-7.971964678534776e-05</v>
+        <v>-0.01833291033144892</v>
       </c>
       <c r="EC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED11" t="n">
-        <v>2.217062785805636e-05</v>
+        <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
         <v>-0</v>
       </c>
       <c r="EG11" t="n">
-        <v>-0</v>
+        <v>-0.004388975209772096</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
         <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.05367480124632986</v>
+        <v>-0.005195997755256241</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0.07269729911426158</v>
+        <v>0.01137870883508485</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>-0.01787006815071453</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>0</v>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.002115757764273628</v>
       </c>
       <c r="EQ11" t="n">
         <v>-0</v>
@@ -6569,25 +6569,25 @@
         <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0005964370667083543</v>
+        <v>0.01274236019734721</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0.04512762606117443</v>
+        <v>0.01080174327539466</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.02713913199831832</v>
+        <v>0</v>
       </c>
       <c r="EW11" t="n">
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.0179384743515631</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6596,16 +6596,16 @@
         <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.01163731768053903</v>
+        <v>0.001568873949862859</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0.04719721581201747</v>
+        <v>0.02795226844038717</v>
       </c>
       <c r="FD11" t="n">
         <v>0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.03295775524784837</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>0</v>
@@ -6614,64 +6614,64 @@
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.003128781657310411</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.003301271650295494</v>
+        <v>-0.0275154466131817</v>
       </c>
       <c r="FL11" t="n">
-        <v>-0.02158478934795017</v>
+        <v>0.01971626590765714</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.04138795248851038</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>-0</v>
+        <v>-8.404413649073535e-05</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.002630783587953962</v>
+        <v>-0.00182443683939502</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.001766448324376378</v>
+        <v>0.02057096350365135</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.01436635574786371</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
         <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>-0</v>
+        <v>-0.02985760876822176</v>
       </c>
       <c r="GA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
@@ -6680,13 +6680,13 @@
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.03526818606106873</v>
+        <v>-0.01407970167790943</v>
       </c>
       <c r="GE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF11" t="n">
-        <v>-0.02793146486137856</v>
+        <v>-0</v>
       </c>
       <c r="GG11" t="n">
         <v>-0</v>
@@ -6697,22 +6697,22 @@
         <v>-0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.836659751646475</v>
+        <v>-0.2965027281243298</v>
       </c>
       <c r="C12" t="n">
         <v>-0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.2049275554189547</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1887417525114809</v>
+        <v>0.2130994498817284</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5453914031499906</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -6721,49 +6721,49 @@
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6705938672623579</v>
+        <v>-0.1814740539325028</v>
       </c>
       <c r="L12" t="n">
         <v>-0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0.1482927035423456</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.01285028777315451</v>
+        <v>0.1634607949514152</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.5576760818967759</v>
+        <v>-0</v>
       </c>
       <c r="P12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.1101544235996518</v>
+        <v>-0.09488741912369433</v>
       </c>
       <c r="U12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0</v>
+        <v>0.03245697209241411</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02501626994545731</v>
+        <v>-0.003948715531136015</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.108058010222153</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -6775,28 +6775,28 @@
         <v>-0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.226039019736956</v>
+        <v>-0.0674932280097869</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0.01508751037809647</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.006716595265139467</v>
+        <v>0.01695634159859969</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.200724975725012</v>
+        <v>-0</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -6805,19 +6805,19 @@
         <v>-0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.111096187293999</v>
+        <v>-0.05155254189306302</v>
       </c>
       <c r="AM12" t="n">
         <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0</v>
+        <v>0.03371337399170132</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.06311114209563923</v>
+        <v>0.06645992452428311</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.1202543231028614</v>
+        <v>-0</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -6826,106 +6826,106 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.271302888793489</v>
+        <v>-0.1773207088767321</v>
       </c>
       <c r="AV12" t="n">
         <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.01245354643042772</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.03372463203823235</v>
+        <v>0.03808187437787838</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0.1525067564157322</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.3488231126800374</v>
+        <v>0.01750367116651472</v>
       </c>
       <c r="BE12" t="n">
         <v>-0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>0.1001427922899764</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.06887245728024342</v>
+        <v>0.2228027112098224</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.09448646199395612</v>
+        <v>-0</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.03050697375971943</v>
+        <v>-0.02868967240327079</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>-0.02984537668348191</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1733733760779853</v>
+        <v>-0.0722994869440369</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.3047082042481875</v>
+        <v>0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.1231811993496282</v>
+        <v>-0.1673396709240404</v>
       </c>
       <c r="BW12" t="n">
         <v>-0</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0</v>
+        <v>-0.0140924407815481</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.2878839613524683</v>
+        <v>0.05168596250973371</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0.4209445879087443</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
         <v>0</v>
@@ -6934,28 +6934,28 @@
         <v>0</v>
       </c>
       <c r="CC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD12" t="n">
         <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0.1832536840006753</v>
+        <v>0.0755223184463109</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>-0.02015756583461784</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.02495569522894506</v>
+        <v>-0.004565152909887009</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.1404214038325997</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>-0</v>
@@ -6967,22 +6967,22 @@
         <v>-0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.09133400846913678</v>
+        <v>-0.04177490260689569</v>
       </c>
       <c r="CO12" t="n">
         <v>0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>0.05742813548262718</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.02178040688128659</v>
+        <v>0.06248366578190469</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0.1458488828406815</v>
+        <v>-0</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
         <v>0</v>
@@ -6994,52 +6994,52 @@
         <v>-0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0.1541789417347126</v>
+        <v>0.06260855365499753</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>-0.03218220713967085</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001226321074640271</v>
+        <v>-0.002059616650143921</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.1274782133576113</v>
+        <v>-0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.003059382707783696</v>
+        <v>0.04680996420915204</v>
       </c>
       <c r="DG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>-0.02811673504434668</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1148307511296624</v>
+        <v>-0.003592145609605059</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0.001277550260565441</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM12" t="n">
         <v>-0</v>
@@ -7048,19 +7048,19 @@
         <v>0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0124755591673905</v>
+        <v>0.04389358778046593</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.005078070230876293</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01723950199234696</v>
+        <v>0.03880354324643522</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0.1486549906174537</v>
+        <v>-0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
@@ -7069,28 +7069,28 @@
         <v>0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0.07150215920515453</v>
+        <v>0.005274042568141197</v>
       </c>
       <c r="DY12" t="n">
         <v>-0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>-0</v>
+        <v>0.01130474229121535</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.07666810265835096</v>
+        <v>0.04223621111896739</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0.0753847229323739</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
         <v>-0</v>
@@ -7099,55 +7099,55 @@
         <v>-0</v>
       </c>
       <c r="EF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0.294763524993374</v>
+        <v>0.03701106434439249</v>
       </c>
       <c r="EH12" t="n">
         <v>0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>-0.02174006316197236</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.2070719124315972</v>
+        <v>-0.06892157530729141</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.1786379831909615</v>
+        <v>0</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN12" t="n">
         <v>0</v>
       </c>
       <c r="EO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0.04693046946120063</v>
+        <v>0.02596724294509193</v>
       </c>
       <c r="EQ12" t="n">
         <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>-0.009689348308374987</v>
       </c>
       <c r="ES12" t="n">
-        <v>-0.06176438824981957</v>
+        <v>-0.002347311336146895</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.2330062687692113</v>
+        <v>0</v>
       </c>
       <c r="EU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW12" t="n">
         <v>0</v>
@@ -7156,22 +7156,22 @@
         <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0.1645371357019826</v>
+        <v>0.05730590501542911</v>
       </c>
       <c r="EZ12" t="n">
         <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>-0.02995919560177928</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02673678879582001</v>
+        <v>-0.00756671920183698</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.1663060824532618</v>
+        <v>0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
         <v>-0</v>
@@ -7183,135 +7183,135 @@
         <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0.03889874888299597</v>
+        <v>0.05858202624828519</v>
       </c>
       <c r="FI12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>-0.06805950009083772</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03823561961321338</v>
+        <v>0.01191206852919623</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.1256171219352943</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
         <v>-0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
         <v>-0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0.1487343431341336</v>
+        <v>-5.680465824922228e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>-0.04101552251145823</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.003105567859099198</v>
+        <v>0.002162994002623726</v>
       </c>
       <c r="FU12" t="n">
-        <v>-0.0019674410942646</v>
+        <v>0</v>
       </c>
       <c r="FV12" t="n">
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
         <v>-0</v>
       </c>
       <c r="FY12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.02213018044465916</v>
+        <v>-0.007807666853151745</v>
       </c>
       <c r="GA12" t="n">
         <v>0</v>
       </c>
       <c r="GB12" t="n">
-        <v>-0</v>
+        <v>0.03177033084526919</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>-0.04286084230398956</v>
+        <v>0</v>
       </c>
       <c r="GE12" t="n">
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1.189389215068349</v>
+        <v>1.080813607114461</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6536765177492861</v>
+        <v>-0.6388179300322536</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1243908572939239</v>
+        <v>-0.2310823830360153</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.020617928952143</v>
+        <v>0.8242953839875931</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4295020371173344</v>
+        <v>-0.461096051473259</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1836717033865097</v>
+        <v>-0.1803695431258359</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -7320,49 +7320,49 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1348393873500122</v>
+        <v>0.2125816952022466</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1406582595841375</v>
+        <v>-0.02606108610083013</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6850113553818318</v>
+        <v>0.1263141620409324</v>
       </c>
       <c r="X13" t="n">
         <v>-0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.234541893199537</v>
+        <v>0.2115368195234953</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.2291575659887453</v>
+        <v>-0.05479161189608589</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.09481233656030723</v>
+        <v>-0.02595546506508219</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -7371,28 +7371,28 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.05252097956280709</v>
+        <v>0.1098970862084568</v>
       </c>
       <c r="AM13" t="n">
         <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.1372448291798321</v>
+        <v>-0.09318920283338135</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.1234669493063393</v>
+        <v>-0.0855050891522502</v>
       </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -7401,19 +7401,19 @@
         <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.4270409486014596</v>
+        <v>0.4790790986031287</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.1289481810329976</v>
+        <v>-0.1592357350461922</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.216759796405804</v>
+        <v>0.1271264185789649</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0</v>
@@ -7422,55 +7422,55 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
         <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.3070662191904215</v>
+        <v>0.2278927918815214</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.5534202594945009</v>
+        <v>-0.1653770171235002</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.2153525696193629</v>
+        <v>-0.3368390781902624</v>
       </c>
       <c r="BH13" t="n">
         <v>-0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.2224616870472937</v>
+        <v>0.1187295425944058</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.2371500278915118</v>
+        <v>0.1149732936320968</v>
       </c>
       <c r="BP13" t="n">
-        <v>-0.2600304003666414</v>
+        <v>0.08764190689336275</v>
       </c>
       <c r="BQ13" t="n">
         <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
         <v>-0</v>
@@ -7482,73 +7482,73 @@
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.2167050300480857</v>
+        <v>0.3287292281338971</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.4096520137589508</v>
+        <v>-0.1631851468083467</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.05532862853625571</v>
+        <v>0.1165734954721135</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>-0.2243209702098954</v>
+        <v>-0.1669406295200661</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.1819412626038645</v>
+        <v>0.09393093818909273</v>
       </c>
       <c r="CH13" t="n">
-        <v>-0.08653543899241124</v>
+        <v>-0.02631547338774122</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.2193756325504937</v>
+        <v>0.1437057231125689</v>
       </c>
       <c r="CO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.5627160126756718</v>
+        <v>-0.184002471729287</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.186047306280445</v>
+        <v>-0.3090697995301707</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
@@ -7560,25 +7560,25 @@
         <v>0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0.2295338484498829</v>
+        <v>-0.1672137274031648</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.1327079962103367</v>
+        <v>0.1311033222632075</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.07425100894754609</v>
+        <v>-0.03878469316115801</v>
       </c>
       <c r="DA13" t="n">
         <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -7587,49 +7587,49 @@
         <v>-0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>-0.2338778883447165</v>
+        <v>-0.1788621728977197</v>
       </c>
       <c r="DG13" t="n">
         <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0555236474491156</v>
+        <v>0.2392936285568136</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.09410400773079898</v>
+        <v>0.01863374074122489</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.02959350079658936</v>
+        <v>0.07065279096539753</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0912031009747853</v>
+        <v>-0.1324775833890767</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.1512152889685226</v>
+        <v>0.03091581478032441</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
         <v>-0</v>
@@ -7641,19 +7641,19 @@
         <v>0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0.02956900752370016</v>
+        <v>-0.06010221414864032</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.04433390451303452</v>
+        <v>-0.1357660787470282</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.10649697173756</v>
+        <v>-0.06301509786068137</v>
       </c>
       <c r="EB13" t="n">
         <v>0</v>
@@ -7668,19 +7668,19 @@
         <v>-0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>-0.3637933677020785</v>
+        <v>-0.1469080734876818</v>
       </c>
       <c r="EH13" t="n">
         <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.3025099337911925</v>
+        <v>0.1583090213014456</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01298869278341861</v>
+        <v>0.04813018883278779</v>
       </c>
       <c r="EK13" t="n">
         <v>-0</v>
@@ -7689,7 +7689,7 @@
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -7698,22 +7698,22 @@
         <v>-0</v>
       </c>
       <c r="EP13" t="n">
-        <v>-0.1595718731573552</v>
+        <v>-0.2051371569509174</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.03537530988194818</v>
+        <v>0.08136004737449937</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.04865237956759188</v>
+        <v>0.08150125979027323</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,28 +7722,28 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>-0.220466744925211</v>
+        <v>-0.1701514417336396</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.1354261994437511</v>
+        <v>0.125872612410426</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.0898431304402242</v>
+        <v>-0.03656584888520035</v>
       </c>
       <c r="FC13" t="n">
         <v>-0</v>
       </c>
       <c r="FD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
         <v>0</v>
@@ -7752,16 +7752,16 @@
         <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.1501712396802102</v>
+        <v>0.01133716039506538</v>
       </c>
       <c r="FI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.07232018964098764</v>
+        <v>0.1501876952161902</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.08292210222047999</v>
+        <v>-0.06997946027151164</v>
       </c>
       <c r="FL13" t="n">
         <v>-0</v>
@@ -7770,114 +7770,114 @@
         <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0.1536140295808614</v>
+        <v>-0.01550772374713432</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0.07298011684744955</v>
+        <v>-0.08354662527224266</v>
       </c>
       <c r="FT13" t="n">
-        <v>-0.0747536498851977</v>
+        <v>-0.08212474714146493</v>
       </c>
       <c r="FU13" t="n">
         <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>-0.1254245440865257</v>
+        <v>0.06595113395304074</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>-0.1168325552898887</v>
+        <v>-0.07759028649511872</v>
       </c>
       <c r="GC13" t="n">
         <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5703766848082417</v>
+        <v>0.4257616610717377</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3259988672728759</v>
+        <v>-0.1082017115188057</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07680292569224619</v>
+        <v>-0.3309645966541649</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
         <v>-0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5501643364320572</v>
+        <v>0.4275630372516828</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.2234799136395633</v>
+        <v>0.01468731618130306</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01822460264056863</v>
+        <v>-0.2809343660846997</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
         <v>-0</v>
@@ -7886,52 +7886,52 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.05181550618875939</v>
+        <v>0.00739338461432903</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1004131486187061</v>
+        <v>-0.02715173422414793</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04966065893330411</v>
+        <v>-0.02910855167630226</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1103515016548045</v>
+        <v>0.04844287443411974</v>
       </c>
       <c r="AC14" t="n">
         <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01354746207986011</v>
+        <v>-0.02978636010763133</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.07174233972724045</v>
+        <v>0.04512496270784996</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -7940,76 +7940,76 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.1883059478958058</v>
+        <v>0.08108839581534227</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.09664430771005589</v>
+        <v>0.03510927020859651</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.04449874723272221</v>
+        <v>-0.1292302615496381</v>
       </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.2843462550177821</v>
+        <v>0.2702105366376609</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.1358948156182465</v>
+        <v>-0.07274354026802779</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.0517962517732441</v>
+        <v>-0.1952802391957316</v>
       </c>
       <c r="AY14" t="n">
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.1420621551320503</v>
+        <v>0.08607109929951978</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.08558948899211161</v>
+        <v>-0.07074479543685872</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1182341008139923</v>
+        <v>-0.05147181128632946</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
         <v>0</v>
@@ -8018,22 +8018,22 @@
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.06585746632477449</v>
+        <v>0.05597345834230676</v>
       </c>
       <c r="BM14" t="n">
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.02044412566942247</v>
+        <v>-0.01835924775684196</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.09782989022807778</v>
+        <v>0.01299024579967883</v>
       </c>
       <c r="BQ14" t="n">
         <v>-0</v>
@@ -8048,25 +8048,25 @@
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.2858757551938195</v>
+        <v>0.1211234984847693</v>
       </c>
       <c r="BV14" t="n">
         <v>0</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.1569551221547486</v>
+        <v>-0.02174089234791662</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.01202747157085914</v>
+        <v>-0.1002929914858199</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
         <v>0</v>
@@ -8075,22 +8075,22 @@
         <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.1348870428003449</v>
+        <v>-0.07497646336418853</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.07229197653918333</v>
+        <v>-0.005004027165343361</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.01872950614392985</v>
+        <v>0.06226072682859271</v>
       </c>
       <c r="CI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8099,52 +8099,52 @@
         <v>0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0.1179315424435058</v>
+        <v>0.008300025335779325</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
         <v>-0</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.009336647040644847</v>
+        <v>0.01880248869164073</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.1371656939886839</v>
+        <v>-0.01906114851947478</v>
       </c>
       <c r="CR14" t="n">
         <v>-0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT14" t="n">
         <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0.1257677797129757</v>
+        <v>-0.06432416894671389</v>
       </c>
       <c r="CW14" t="n">
         <v>-0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.05399839423108102</v>
+        <v>0.002335864987961563</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.06617353625429565</v>
+        <v>0.07763007106269895</v>
       </c>
       <c r="DA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
         <v>-0</v>
@@ -8153,49 +8153,49 @@
         <v>-0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>-0.001000728013157381</v>
+        <v>-0.005203528650572919</v>
       </c>
       <c r="DF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.03773767341346666</v>
+        <v>0.107132785690349</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.003060886740750692</v>
+        <v>-0.05999476426565549</v>
       </c>
       <c r="DJ14" t="n">
         <v>-0</v>
       </c>
       <c r="DK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>-0.03235511829706374</v>
+        <v>0.002580781124315811</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.0009455244391802612</v>
+        <v>0.01682913347502331</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.07181319190326629</v>
+        <v>0.04841272533937082</v>
       </c>
       <c r="DS14" t="n">
         <v>-0</v>
@@ -8207,55 +8207,55 @@
         <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>-0.06261295297516822</v>
+        <v>-0.0142498215469798</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DY14" t="n">
         <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.008398872258324478</v>
+        <v>-0.02237491541389057</v>
       </c>
       <c r="EA14" t="n">
-        <v>-0.04111694543497461</v>
+        <v>0.0862431173137022</v>
       </c>
       <c r="EB14" t="n">
         <v>-0</v>
       </c>
       <c r="EC14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0.2621654201942188</v>
+        <v>-0.0805504230665354</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.11380608355321</v>
+        <v>0.05593328653517852</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.04356008545451395</v>
+        <v>0.07400717473791005</v>
       </c>
       <c r="EK14" t="n">
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
         <v>0</v>
@@ -8264,22 +8264,22 @@
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0.0569371195421887</v>
+        <v>-0.07079474968624892</v>
       </c>
       <c r="EP14" t="n">
         <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.009412915525136605</v>
+        <v>-0.01723991064522254</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.03943316553747529</v>
+        <v>0.01814936731622246</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
@@ -8288,25 +8288,25 @@
         <v>0</v>
       </c>
       <c r="EW14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>-0.1366331716567343</v>
+        <v>-0.06093308062219609</v>
       </c>
       <c r="EY14" t="n">
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.0611949924329652</v>
+        <v>-0.006754780045409122</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.01388083477617992</v>
+        <v>0.05808291851943752</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>0</v>
@@ -8315,49 +8315,49 @@
         <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.05369020775254786</v>
+        <v>-0.008274235148020509</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.05227129553760731</v>
+        <v>0.04671787264454726</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.07123194550935993</v>
+        <v>0.07973460684251754</v>
       </c>
       <c r="FL14" t="n">
         <v>0</v>
       </c>
       <c r="FM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.1074625010963872</v>
+        <v>-0.04533573567904512</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.05150552322553745</v>
+        <v>-0.0008660072611884913</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.07038106465688825</v>
+        <v>0.1071565473790611</v>
       </c>
       <c r="FU14" t="n">
         <v>-0</v>
@@ -8372,22 +8372,22 @@
         <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.07718580171012664</v>
+        <v>0.02631571511629985</v>
       </c>
       <c r="FZ14" t="n">
         <v>-0</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.0618715781527713</v>
+        <v>0.06824294513463973</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE14" t="n">
         <v>0</v>
